--- a/资产负债表/300921.xlsx
+++ b/资产负债表/300921.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,61 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>329949676.02</v>
+        <v>210210930.23</v>
       </c>
       <c r="P2" t="n">
-        <v>59492026.61</v>
+        <v>44315188.57</v>
       </c>
       <c r="Q2" t="n">
-        <v>126629634.77</v>
+        <v>86032857.31</v>
       </c>
       <c r="R2" t="n">
-        <v>58.1187545689</v>
+        <v>59.2168693808</v>
       </c>
       <c r="S2" t="n">
-        <v>109721564.19</v>
+        <v>58223610.26</v>
       </c>
       <c r="T2" t="n">
-        <v>3.0016164397</v>
+        <v>3.8537564093</v>
       </c>
       <c r="U2" t="n">
-        <v>11690095.22</v>
+        <v>1938497.61</v>
       </c>
       <c r="V2" t="n">
-        <v>5.8557557979</v>
+        <v>-87.8719365387</v>
       </c>
       <c r="W2" t="n">
-        <v>87519883.84999999</v>
+        <v>95905289.41</v>
       </c>
       <c r="X2" t="n">
-        <v>48013604.37</v>
+        <v>39690240.28</v>
       </c>
       <c r="Y2" t="n">
-        <v>-16.3557790947</v>
-      </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+        <v>-32.8873378024</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>7078071.53</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-63.7000751326</v>
+      </c>
       <c r="AB2" t="n">
-        <v>242429792.17</v>
+        <v>114305640.82</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.3110873616</v>
+        <v>48.0764859734</v>
       </c>
       <c r="AD2" t="n">
-        <v>21.4281219438</v>
+        <v>12.5684571318</v>
       </c>
       <c r="AE2" t="n">
-        <v>-19.9698954493</v>
+        <v>-12.4527418248</v>
       </c>
       <c r="AF2" t="n">
-        <v>302.3231813587</v>
+        <v>172.3477108213</v>
       </c>
       <c r="AG2" t="n">
-        <v>26.5252219386</v>
+        <v>45.6233599771</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
